--- a/data/Fall2018/db1-7_all-timepoints-runs/db7/15-genes_34-edges_db7_Sigmoid_estimation_all-timepoints_no-dHAP4-data.xlsx
+++ b/data/Fall2018/db1-7_all-timepoints-runs/db7/15-genes_34-edges_db7_Sigmoid_estimation_all-timepoints_no-dHAP4-data.xlsx
@@ -7520,7 +7520,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7530,7 +7530,7 @@
     <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7647,8 +7647,14 @@
       <c r="D14" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>90</v>
+      </c>
+      <c r="F14" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -7665,7 +7671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -7707,6 +7713,42 @@
       </c>
       <c r="N16" s="1">
         <v>60</v>
+      </c>
+      <c r="O16" s="1">
+        <v>65</v>
+      </c>
+      <c r="P16" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>75</v>
+      </c>
+      <c r="R16" s="1">
+        <v>80</v>
+      </c>
+      <c r="S16" s="1">
+        <v>85</v>
+      </c>
+      <c r="T16" s="1">
+        <v>90</v>
+      </c>
+      <c r="U16" s="1">
+        <v>95</v>
+      </c>
+      <c r="V16" s="1">
+        <v>100</v>
+      </c>
+      <c r="W16" s="1">
+        <v>105</v>
+      </c>
+      <c r="X16" s="1">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>115</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/Fall2018/db1-7_all-timepoints-runs/db7/15-genes_34-edges_db7_Sigmoid_estimation_all-timepoints_no-dHAP4-data.xlsx
+++ b/data/Fall2018/db1-7_all-timepoints-runs/db7/15-genes_34-edges_db7_Sigmoid_estimation_all-timepoints_no-dHAP4-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D517C2-6A81-438B-B672-37C9A770D7D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28755" windowHeight="6885" tabRatio="760" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11723" tabRatio="760" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="4" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="42">
   <si>
     <t>ACE2</t>
   </si>
@@ -153,227 +159,11 @@
   <si>
     <t>SWI5</t>
   </si>
-  <si>
-    <t>-0.2792</t>
-  </si>
-  <si>
-    <t>-0.2436</t>
-  </si>
-  <si>
-    <t>0.1581</t>
-  </si>
-  <si>
-    <t>1.0793</t>
-  </si>
-  <si>
-    <t>-1.8448</t>
-  </si>
-  <si>
-    <t>-0.383</t>
-  </si>
-  <si>
-    <t>0.2693</t>
-  </si>
-  <si>
-    <t>-0.2042</t>
-  </si>
-  <si>
-    <t>-0.4827</t>
-  </si>
-  <si>
-    <t>-0.6312</t>
-  </si>
-  <si>
-    <t>0.1274</t>
-  </si>
-  <si>
-    <t>-1.251</t>
-  </si>
-  <si>
-    <t>1.117</t>
-  </si>
-  <si>
-    <t>2.584</t>
-  </si>
-  <si>
-    <t>-0.3518</t>
-  </si>
-  <si>
-    <t>0.5869</t>
-  </si>
-  <si>
-    <t>0.0341</t>
-  </si>
-  <si>
-    <t>1.4453</t>
-  </si>
-  <si>
-    <t>-0.5607</t>
-  </si>
-  <si>
-    <t>0.1712</t>
-  </si>
-  <si>
-    <t>-1.463</t>
-  </si>
-  <si>
-    <t>0.3025</t>
-  </si>
-  <si>
-    <t>-0.0617</t>
-  </si>
-  <si>
-    <t>2.2291</t>
-  </si>
-  <si>
-    <t>1.2958</t>
-  </si>
-  <si>
-    <t>1.5911</t>
-  </si>
-  <si>
-    <t>1.2566</t>
-  </si>
-  <si>
-    <t>-3.5699</t>
-  </si>
-  <si>
-    <t>-0.345</t>
-  </si>
-  <si>
-    <t>0.4422</t>
-  </si>
-  <si>
-    <t>1.8072</t>
-  </si>
-  <si>
-    <t>-0.8927</t>
-  </si>
-  <si>
-    <t>1.1069</t>
-  </si>
-  <si>
-    <t>0.3945</t>
-  </si>
-  <si>
-    <t>-0.5489</t>
-  </si>
-  <si>
-    <t>-0.5302</t>
-  </si>
-  <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>0.3902</t>
-  </si>
-  <si>
-    <t>0.2778</t>
-  </si>
-  <si>
-    <t>0.0835</t>
-  </si>
-  <si>
-    <t>0.3892</t>
-  </si>
-  <si>
-    <t>0.6028</t>
-  </si>
-  <si>
-    <t>0.4726</t>
-  </si>
-  <si>
-    <t>0.5256</t>
-  </si>
-  <si>
-    <t>-0.3325</t>
-  </si>
-  <si>
-    <t>1.4622</t>
-  </si>
-  <si>
-    <t>-0.9051</t>
-  </si>
-  <si>
-    <t>1.0717</t>
-  </si>
-  <si>
-    <t>-1.9025</t>
-  </si>
-  <si>
-    <t>-0.4406</t>
-  </si>
-  <si>
-    <t>-2.2715</t>
-  </si>
-  <si>
-    <t>0.2188</t>
-  </si>
-  <si>
-    <t>2.5266</t>
-  </si>
-  <si>
-    <t>0.4041</t>
-  </si>
-  <si>
-    <t>0.0511</t>
-  </si>
-  <si>
-    <t>-0.5177</t>
-  </si>
-  <si>
-    <t>0.1802</t>
-  </si>
-  <si>
-    <t>0.8526</t>
-  </si>
-  <si>
-    <t>-0.4332</t>
-  </si>
-  <si>
-    <t>1.146</t>
-  </si>
-  <si>
-    <t>-0.8535</t>
-  </si>
-  <si>
-    <t>0.3344</t>
-  </si>
-  <si>
-    <t>-1.2684</t>
-  </si>
-  <si>
-    <t>-0.8782</t>
-  </si>
-  <si>
-    <t>-0.802</t>
-  </si>
-  <si>
-    <t>1.2361</t>
-  </si>
-  <si>
-    <t>-0.9354</t>
-  </si>
-  <si>
-    <t>-0.0589</t>
-  </si>
-  <si>
-    <t>-0.7158</t>
-  </si>
-  <si>
-    <t>0.4284</t>
-  </si>
-  <si>
-    <t>-1.0332</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -601,7 +391,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -613,6 +403,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="132" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="134">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -746,9 +537,9 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="132"/>
-    <cellStyle name="Normal 4" xfId="133"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Normal 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Normal 4" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1084,17 +875,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1102,7 +893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +901,7 @@
         <v>0.22359999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +909,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +917,7 @@
         <v>0.1026</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1134,7 +925,7 @@
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +933,7 @@
         <v>0.27179999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +941,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1158,7 +949,7 @@
         <v>0.17119999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +957,7 @@
         <v>0.4078</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1174,7 +965,7 @@
         <v>0.2772</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +973,7 @@
         <v>0.69320000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1190,7 +981,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1198,7 +989,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1206,7 +997,7 @@
         <v>0.32240000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1005,7 @@
         <v>0.17319999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,17 +1025,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1268,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1284,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1300,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1308,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1324,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1356,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1364,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1383,17 +1174,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1193,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1202,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1420,7 +1211,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1220,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1229,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1238,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1247,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1465,7 +1256,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1474,7 +1265,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1483,7 +1274,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1283,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1501,7 +1292,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1301,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1519,7 +1310,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1528,7 +1319,7 @@
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1328,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
     </row>
   </sheetData>
@@ -1547,21 +1338,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X15" activeCellId="2" sqref="G2 P2 X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="24" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1426,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1496,7 @@
         <v>-0.31900000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1570,7 @@
         <v>1.0625</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1853,7 +1644,7 @@
         <v>-1.2761</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1927,7 +1718,7 @@
         <v>-1.4531000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2001,7 +1792,7 @@
         <v>-1.0219</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +1866,7 @@
         <v>0.7853</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -2149,7 +1940,7 @@
         <v>0.20930000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2223,7 +2014,7 @@
         <v>0.47389999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -2297,7 +2088,7 @@
         <v>3.7161</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2162,7 @@
         <v>0.40789999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2445,7 +2236,7 @@
         <v>-0.47739999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2310,7 @@
         <v>-0.95709999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2593,7 +2384,7 @@
         <v>0.51490000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2665,7 +2456,7 @@
       </c>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2751,21 +2542,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T8" activeCellId="7" sqref="B9 C3 C10 C13 I2 J3 S3 T8"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="21" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2830,15 +2621,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>-0.17180000000000001</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>42</v>
+      <c r="C2" s="11">
+        <v>-0.2792</v>
       </c>
       <c r="D2" s="3">
         <v>-0.17519999999999999</v>
@@ -2846,11 +2637,11 @@
       <c r="E2" s="3">
         <v>-0.68840000000000001</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>44</v>
+      <c r="F2" s="11">
+        <v>-0.24360000000000001</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.15809999999999999</v>
       </c>
       <c r="H2" s="3">
         <v>-0.42530000000000001</v>
@@ -2880,8 +2671,8 @@
       <c r="Q2" s="3">
         <v>2.9009999999999998</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>45</v>
+      <c r="R2" s="11">
+        <v>1.0792999999999999</v>
       </c>
       <c r="S2" s="3">
         <v>0.89990000000000003</v>
@@ -2893,7 +2684,7 @@
         <v>-0.29010000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2907,11 +2698,11 @@
       <c r="E3" s="3">
         <v>-0.1191</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
+      <c r="F3" s="11">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.26929999999999998</v>
       </c>
       <c r="H3" s="3">
         <v>-7.5700000000000003E-2</v>
@@ -2941,8 +2732,8 @@
       <c r="Q3" s="3">
         <v>0.55030000000000001</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>49</v>
+      <c r="R3" s="11">
+        <v>-0.20419999999999999</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="3">
@@ -2952,15 +2743,15 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>-1.5613999999999999</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
+      <c r="C4" s="11">
+        <v>-0.63119999999999998</v>
       </c>
       <c r="D4" s="3">
         <v>-1.9643999999999999</v>
@@ -2968,11 +2759,11 @@
       <c r="E4" s="3">
         <v>-2.0152000000000001</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>53</v>
+      <c r="F4" s="11">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-1.2509999999999999</v>
       </c>
       <c r="H4" s="3">
         <v>-1.7951999999999999</v>
@@ -3004,8 +2795,8 @@
       <c r="Q4" s="3">
         <v>-1.8407</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>54</v>
+      <c r="R4" s="11">
+        <v>1.117</v>
       </c>
       <c r="S4" s="3">
         <v>1.4206000000000001</v>
@@ -3017,15 +2808,15 @@
         <v>-2.7338</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.96209999999999996</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>56</v>
+      <c r="C5" s="11">
+        <v>-0.3518</v>
       </c>
       <c r="D5" s="3">
         <v>0.31009999999999999</v>
@@ -3033,11 +2824,11 @@
       <c r="E5" s="3">
         <v>-0.15890000000000001</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>58</v>
+      <c r="F5" s="11">
+        <v>0.58689999999999998</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="H5" s="3">
         <v>0.48599999999999999</v>
@@ -3069,8 +2860,8 @@
       <c r="Q5" s="3">
         <v>-2.6499999999999999E-2</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>59</v>
+      <c r="R5" s="11">
+        <v>1.4453</v>
       </c>
       <c r="S5" s="3">
         <v>-1.0232000000000001</v>
@@ -3082,15 +2873,15 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
+      <c r="C6" s="11">
+        <v>0.17119999999999999</v>
       </c>
       <c r="D6" s="3">
         <v>-1.9531000000000001</v>
@@ -3098,11 +2889,11 @@
       <c r="E6" s="3">
         <v>-0.21510000000000001</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>63</v>
+      <c r="F6" s="11">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.30249999999999999</v>
       </c>
       <c r="H6" s="3">
         <v>-2.2646000000000002</v>
@@ -3134,8 +2925,8 @@
       <c r="Q6" s="3">
         <v>-1.2024999999999999</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>64</v>
+      <c r="R6" s="11">
+        <v>-6.1699999999999998E-2</v>
       </c>
       <c r="S6" s="3">
         <v>1.1213</v>
@@ -3147,15 +2938,15 @@
         <v>1.583</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>-0.91690000000000005</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>66</v>
+      <c r="C7" s="11">
+        <v>1.2958000000000001</v>
       </c>
       <c r="D7" s="3">
         <v>0.42699999999999999</v>
@@ -3163,11 +2954,11 @@
       <c r="E7" s="3">
         <v>-7.1199999999999999E-2</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>68</v>
+      <c r="F7" s="11">
+        <v>1.5911</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1.2565999999999999</v>
       </c>
       <c r="H7" s="3">
         <v>0.39100000000000001</v>
@@ -3199,8 +2990,8 @@
       <c r="Q7" s="3">
         <v>1.099</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>69</v>
+      <c r="R7" s="11">
+        <v>-3.5699000000000001</v>
       </c>
       <c r="S7" s="3">
         <v>-1.8355999999999999</v>
@@ -3212,15 +3003,15 @@
         <v>-2.9781</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="3">
         <v>0.48080000000000001</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>71</v>
+      <c r="C8" s="11">
+        <v>0.44219999999999998</v>
       </c>
       <c r="D8" s="3">
         <v>1.4923999999999999</v>
@@ -3228,11 +3019,11 @@
       <c r="E8" s="3">
         <v>2.4096000000000002</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>73</v>
+      <c r="F8" s="11">
+        <v>1.8071999999999999</v>
+      </c>
+      <c r="G8" s="11">
+        <v>-0.89270000000000005</v>
       </c>
       <c r="H8" s="3">
         <v>0.75890000000000002</v>
@@ -3264,8 +3055,8 @@
       <c r="Q8" s="3">
         <v>0.5645</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>74</v>
+      <c r="R8" s="11">
+        <v>1.1069</v>
       </c>
       <c r="S8" s="3">
         <v>0.4713</v>
@@ -3275,13 +3066,13 @@
         <v>1.2195</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="3" t="s">
-        <v>76</v>
+      <c r="C9" s="11">
+        <v>-0.54890000000000005</v>
       </c>
       <c r="D9" s="3">
         <v>0.24909999999999999</v>
@@ -3289,11 +3080,11 @@
       <c r="E9" s="3">
         <v>0.90359999999999996</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>78</v>
+      <c r="F9" s="11">
+        <v>-0.5302</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.6E-2</v>
       </c>
       <c r="H9" s="3">
         <v>-9.9699999999999997E-2</v>
@@ -3325,8 +3116,8 @@
       <c r="Q9" s="3">
         <v>0.41470000000000001</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>79</v>
+      <c r="R9" s="11">
+        <v>-0.04</v>
       </c>
       <c r="S9" s="3">
         <v>-0.1053</v>
@@ -3338,7 +3129,7 @@
         <v>1.0256000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -3352,11 +3143,11 @@
       <c r="E10" s="3">
         <v>1.5691999999999999</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>82</v>
+      <c r="F10" s="11">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="G10" s="11">
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="H10" s="3">
         <v>2.1132</v>
@@ -3388,8 +3179,8 @@
       <c r="Q10" s="3">
         <v>-0.34839999999999999</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>83</v>
+      <c r="R10" s="11">
+        <v>0.38919999999999999</v>
       </c>
       <c r="S10" s="3">
         <v>0.86570000000000003</v>
@@ -3401,15 +3192,15 @@
         <v>1.3242</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>1.0931999999999999</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>85</v>
+      <c r="C11" s="11">
+        <v>0.47260000000000002</v>
       </c>
       <c r="D11" s="3">
         <v>1.1254999999999999</v>
@@ -3417,11 +3208,11 @@
       <c r="E11" s="3">
         <v>0.62629999999999997</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>87</v>
+      <c r="F11" s="11">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-0.33250000000000002</v>
       </c>
       <c r="H11" s="3">
         <v>1.6525000000000001</v>
@@ -3453,8 +3244,8 @@
       <c r="Q11" s="3">
         <v>-0.1474</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>88</v>
+      <c r="R11" s="11">
+        <v>1.4621999999999999</v>
       </c>
       <c r="S11" s="3">
         <v>3.78E-2</v>
@@ -3466,15 +3257,15 @@
         <v>0.20419999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="3">
         <v>1.2589999999999999</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>90</v>
+      <c r="C12" s="11">
+        <v>1.0717000000000001</v>
       </c>
       <c r="D12" s="3">
         <v>0.91600000000000004</v>
@@ -3482,11 +3273,11 @@
       <c r="E12" s="3">
         <v>0.80400000000000005</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>92</v>
+      <c r="F12" s="11">
+        <v>-1.9025000000000001</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-0.44059999999999999</v>
       </c>
       <c r="H12" s="3">
         <v>0.56589999999999996</v>
@@ -3518,8 +3309,8 @@
       <c r="Q12" s="3">
         <v>1.3001</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>93</v>
+      <c r="R12" s="11">
+        <v>-2.2715000000000001</v>
       </c>
       <c r="S12" s="3">
         <v>-0.24709999999999999</v>
@@ -3531,7 +3322,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -3545,11 +3336,11 @@
       <c r="E13" s="3">
         <v>-0.54890000000000005</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>96</v>
+      <c r="F13" s="11">
+        <v>2.5266000000000002</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.40410000000000001</v>
       </c>
       <c r="H13" s="3">
         <v>2.5700000000000001E-2</v>
@@ -3581,8 +3372,8 @@
       <c r="Q13" s="3">
         <v>-7.9000000000000008E-3</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>97</v>
+      <c r="R13" s="11">
+        <v>5.11E-2</v>
       </c>
       <c r="S13" s="3">
         <v>0.57050000000000001</v>
@@ -3594,15 +3385,15 @@
         <v>-0.24779999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="3">
         <v>-0.1331</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>99</v>
+      <c r="C14" s="11">
+        <v>0.1802</v>
       </c>
       <c r="D14" s="3">
         <v>-0.32140000000000002</v>
@@ -3610,11 +3401,11 @@
       <c r="E14" s="3">
         <v>-1.8200000000000001E-2</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>101</v>
+      <c r="F14" s="11">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-0.43319999999999997</v>
       </c>
       <c r="H14" s="3">
         <v>0.22489999999999999</v>
@@ -3646,8 +3437,8 @@
       <c r="Q14" s="3">
         <v>1.0215000000000001</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>102</v>
+      <c r="R14" s="11">
+        <v>1.1459999999999999</v>
       </c>
       <c r="S14" s="3">
         <v>-0.61909999999999998</v>
@@ -3659,15 +3450,15 @@
         <v>1.4060999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
         <v>-1.2421</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
+      <c r="C15" s="11">
+        <v>0.33439999999999998</v>
       </c>
       <c r="D15" s="3">
         <v>-0.73499999999999999</v>
@@ -3675,11 +3466,11 @@
       <c r="E15" s="3">
         <v>0.29349999999999998</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>106</v>
+      <c r="F15" s="11">
+        <v>-1.2684</v>
+      </c>
+      <c r="G15" s="11">
+        <v>-0.87819999999999998</v>
       </c>
       <c r="H15" s="3">
         <v>1.0021</v>
@@ -3711,8 +3502,8 @@
       <c r="Q15" s="3">
         <v>-2.1100000000000001E-2</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>107</v>
+      <c r="R15" s="11">
+        <v>-0.80200000000000005</v>
       </c>
       <c r="S15" s="3">
         <v>0.77529999999999999</v>
@@ -3724,15 +3515,15 @@
         <v>-0.2631</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="3">
         <v>-1.3433999999999999</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>109</v>
+      <c r="C16" s="11">
+        <v>-0.93540000000000001</v>
       </c>
       <c r="D16" s="3">
         <v>-1.7083999999999999</v>
@@ -3740,11 +3531,11 @@
       <c r="E16" s="3">
         <v>-0.28220000000000001</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>111</v>
+      <c r="F16" s="11">
+        <v>-5.8900000000000001E-2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-0.71579999999999999</v>
       </c>
       <c r="H16" s="3">
         <v>-0.11550000000000001</v>
@@ -3776,8 +3567,8 @@
       <c r="Q16" s="3">
         <v>1.3318000000000001</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>112</v>
+      <c r="R16" s="11">
+        <v>0.4284</v>
       </c>
       <c r="S16" s="3">
         <v>-0.67410000000000003</v>
@@ -3801,19 +3592,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="21" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3878,7 +3671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3930,8 +3723,8 @@
       <c r="Q2" s="3">
         <v>2.0644</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>46</v>
+      <c r="R2" s="11">
+        <v>-1.8448</v>
       </c>
       <c r="S2" s="3">
         <v>4.2244000000000002</v>
@@ -3943,7 +3736,7 @@
         <v>0.35189999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3995,8 +3788,8 @@
       <c r="Q3" s="3">
         <v>2.3325</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>50</v>
+      <c r="R3" s="11">
+        <v>-0.48270000000000002</v>
       </c>
       <c r="S3" s="3">
         <v>1.7847999999999999</v>
@@ -4008,7 +3801,7 @@
         <v>5.1330999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4060,8 +3853,8 @@
       <c r="Q4" s="3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>55</v>
+      <c r="R4" s="11">
+        <v>2.5840000000000001</v>
       </c>
       <c r="S4" s="3">
         <v>-0.10780000000000001</v>
@@ -4073,7 +3866,7 @@
         <v>-1.0476000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4125,8 +3918,8 @@
       <c r="Q5" s="3">
         <v>0.48330000000000001</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>60</v>
+      <c r="R5" s="11">
+        <v>-0.56069999999999998</v>
       </c>
       <c r="S5" s="3">
         <v>3.3700000000000001E-2</v>
@@ -4138,7 +3931,7 @@
         <v>-0.97250000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4190,8 +3983,8 @@
       <c r="Q6" s="3">
         <v>-0.86240000000000006</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>65</v>
+      <c r="R6" s="11">
+        <v>2.2290999999999999</v>
       </c>
       <c r="S6" s="3">
         <v>1.0261</v>
@@ -4203,7 +3996,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4255,8 +4048,8 @@
       <c r="Q7" s="3">
         <v>2.133</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>70</v>
+      <c r="R7" s="11">
+        <v>-0.34499999999999997</v>
       </c>
       <c r="S7" s="3">
         <v>-2.0594999999999999</v>
@@ -4268,7 +4061,7 @@
         <v>-2.0489000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -4306,14 +4099,14 @@
         <v>-0.82179999999999997</v>
       </c>
       <c r="Q8" s="10"/>
-      <c r="R8" s="3" t="s">
-        <v>75</v>
+      <c r="R8" s="11">
+        <v>0.39450000000000002</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4363,8 +4156,8 @@
       <c r="Q9" s="3">
         <v>2.1431</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>80</v>
+      <c r="R9" s="11">
+        <v>0.39019999999999999</v>
       </c>
       <c r="S9" s="3">
         <v>-0.41870000000000002</v>
@@ -4376,7 +4169,7 @@
         <v>0.55079999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -4426,8 +4219,8 @@
       <c r="Q10" s="3">
         <v>-0.94869999999999999</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>84</v>
+      <c r="R10" s="11">
+        <v>0.6028</v>
       </c>
       <c r="S10" s="3">
         <v>-0.85270000000000001</v>
@@ -4439,7 +4232,7 @@
         <v>0.87580000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4491,8 +4284,8 @@
       <c r="Q11" s="3">
         <v>1.2373000000000001</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>89</v>
+      <c r="R11" s="11">
+        <v>-0.90510000000000002</v>
       </c>
       <c r="S11" s="3">
         <v>-0.53249999999999997</v>
@@ -4504,7 +4297,7 @@
         <v>-0.1676</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4554,8 +4347,8 @@
       <c r="Q12" s="3">
         <v>-0.86599999999999999</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>94</v>
+      <c r="R12" s="11">
+        <v>0.21879999999999999</v>
       </c>
       <c r="S12" s="3">
         <v>-0.92359999999999998</v>
@@ -4567,7 +4360,7 @@
         <v>-2.0510999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -4619,8 +4412,8 @@
       <c r="Q13" s="3">
         <v>0.21049999999999999</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>98</v>
+      <c r="R13" s="11">
+        <v>-0.51770000000000005</v>
       </c>
       <c r="S13" s="3">
         <v>-0.45090000000000002</v>
@@ -4632,7 +4425,7 @@
         <v>-0.222</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -4682,8 +4475,8 @@
       <c r="Q14" s="3">
         <v>0.62970000000000004</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>103</v>
+      <c r="R14" s="11">
+        <v>-0.85350000000000004</v>
       </c>
       <c r="S14" s="3">
         <v>0.29920000000000002</v>
@@ -4695,7 +4488,7 @@
         <v>-0.26190000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -4747,8 +4540,8 @@
       <c r="Q15" s="3">
         <v>0.2349</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>108</v>
+      <c r="R15" s="11">
+        <v>1.2361</v>
       </c>
       <c r="S15" s="3">
         <v>-0.28249999999999997</v>
@@ -4760,7 +4553,7 @@
         <v>1.8572</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -4810,8 +4603,8 @@
       <c r="Q16" s="3">
         <v>3.3220000000000001</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>113</v>
+      <c r="R16" s="11">
+        <v>-1.0331999999999999</v>
       </c>
       <c r="S16" s="3">
         <v>1.9711000000000001</v>
@@ -4838,19 +4631,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="21" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -4915,7 +4708,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4980,7 +4773,7 @@
         <v>0.57740000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5045,7 +4838,7 @@
         <v>-0.92689999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5110,7 +4903,7 @@
         <v>-2.0002</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5175,7 +4968,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5240,7 +5033,7 @@
         <v>0.47910000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -5305,7 +5098,7 @@
         <v>-2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -5370,7 +5163,7 @@
         <v>-2.0543999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5435,7 +5228,7 @@
         <v>1.0784</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -5500,7 +5293,7 @@
         <v>-0.15740000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5358,7 @@
         <v>-0.50970000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -5610,7 +5403,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -5675,7 +5468,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -5740,7 +5533,7 @@
         <v>0.11559999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -5805,7 +5598,7 @@
         <v>-2.7099999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -5876,17 +5669,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -5936,7 +5729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5986,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6036,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6086,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6136,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6186,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6236,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -6286,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6336,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -6386,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -6436,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -6486,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -6536,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -6586,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -6636,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -6698,17 +6491,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -6758,7 +6551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6808,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6858,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6908,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6958,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -7008,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -7058,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -7108,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -7158,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -7208,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -7258,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -7308,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -7358,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -7408,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -7458,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -7519,18 +7312,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -7538,7 +7331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -7546,7 +7339,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -7554,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -7562,7 +7355,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -7570,7 +7363,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7578,7 +7371,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -7586,7 +7379,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -7594,7 +7387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -7602,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -7610,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -7618,7 +7411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -7626,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -7634,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -7654,7 +7447,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -7671,7 +7464,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
